--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H2">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I2">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J2">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>35.52647983403301</v>
+        <v>36.03109853238355</v>
       </c>
       <c r="R2">
-        <v>35.52647983403301</v>
+        <v>324.279886791452</v>
       </c>
       <c r="S2">
-        <v>0.2026895868538349</v>
+        <v>0.1987042642562488</v>
       </c>
       <c r="T2">
-        <v>0.2026895868538349</v>
+        <v>0.1987042642562488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H3">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I3">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J3">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>33.799865932</v>
+        <v>34.95505811724356</v>
       </c>
       <c r="R3">
-        <v>33.799865932</v>
+        <v>314.595523055192</v>
       </c>
       <c r="S3">
-        <v>0.1928387189914945</v>
+        <v>0.1927701177075885</v>
       </c>
       <c r="T3">
-        <v>0.1928387189914945</v>
+        <v>0.1927701177075885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.585018179821301</v>
+        <v>9.712432666666666</v>
       </c>
       <c r="H4">
-        <v>9.585018179821301</v>
+        <v>29.137298</v>
       </c>
       <c r="I4">
-        <v>0.4674256588876731</v>
+        <v>0.4639063029983291</v>
       </c>
       <c r="J4">
-        <v>0.4674256588876731</v>
+        <v>0.463906302998329</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>12.60183072365291</v>
+        <v>13.13410003279044</v>
       </c>
       <c r="R4">
-        <v>12.60183072365291</v>
+        <v>118.206900295114</v>
       </c>
       <c r="S4">
-        <v>0.0718973530423436</v>
+        <v>0.07243192103449178</v>
       </c>
       <c r="T4">
-        <v>0.0718973530423436</v>
+        <v>0.07243192103449177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H5">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J5">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>33.67430979216117</v>
+        <v>33.85149348648999</v>
       </c>
       <c r="R5">
-        <v>33.67430979216117</v>
+        <v>304.66344137841</v>
       </c>
       <c r="S5">
-        <v>0.1921223822694275</v>
+        <v>0.1866841806436375</v>
       </c>
       <c r="T5">
-        <v>0.1921223822694275</v>
+        <v>0.1866841806436375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H6">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I6">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J6">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>32.03771276087259</v>
+        <v>32.84054526153999</v>
       </c>
       <c r="R6">
-        <v>32.03771276087259</v>
+        <v>295.56490735386</v>
       </c>
       <c r="S6">
-        <v>0.1827850885756031</v>
+        <v>0.1811090044369141</v>
       </c>
       <c r="T6">
-        <v>0.1827850885756031</v>
+        <v>0.1811090044369141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.08530406217165</v>
+        <v>9.124904999999998</v>
       </c>
       <c r="H7">
-        <v>9.08530406217165</v>
+        <v>27.37471499999999</v>
       </c>
       <c r="I7">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594535</v>
       </c>
       <c r="J7">
-        <v>0.4430564614259928</v>
+        <v>0.4358435305594534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>11.9448353374472</v>
+        <v>12.339587740055</v>
       </c>
       <c r="R7">
-        <v>11.9448353374472</v>
+        <v>111.056289660495</v>
       </c>
       <c r="S7">
-        <v>0.06814899058096223</v>
+        <v>0.06805034547890189</v>
       </c>
       <c r="T7">
-        <v>0.06814899058096223</v>
+        <v>0.06805034547890189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H8">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I8">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J8">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>1.017958076392874</v>
+        <v>1.180396245605333</v>
       </c>
       <c r="R8">
-        <v>1.017958076392874</v>
+        <v>10.623566210448</v>
       </c>
       <c r="S8">
-        <v>0.005807766570245453</v>
+        <v>0.006509647972654528</v>
       </c>
       <c r="T8">
-        <v>0.005807766570245453</v>
+        <v>0.006509647972654528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H9">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I9">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J9">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>0.9684845407485407</v>
+        <v>1.145144640245334</v>
       </c>
       <c r="R9">
-        <v>0.9684845407485407</v>
+        <v>10.306301762208</v>
       </c>
       <c r="S9">
-        <v>0.005525504703975714</v>
+        <v>0.006315242456524763</v>
       </c>
       <c r="T9">
-        <v>0.005525504703975714</v>
+        <v>0.006315242456524763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274644341744623</v>
+        <v>0.318184</v>
       </c>
       <c r="H10">
-        <v>0.274644341744623</v>
+        <v>0.9545520000000001</v>
       </c>
       <c r="I10">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="J10">
-        <v>0.01339338225461196</v>
+        <v>0.01519779525677573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>0.3610865873119654</v>
+        <v>0.4302794807706667</v>
       </c>
       <c r="R10">
-        <v>0.3610865873119654</v>
+        <v>3.872515326936</v>
       </c>
       <c r="S10">
-        <v>0.002060110980390792</v>
+        <v>0.002372904827596444</v>
       </c>
       <c r="T10">
-        <v>0.002060110980390792</v>
+        <v>0.002372904827596444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.319477951252761</v>
+        <v>0.353022</v>
       </c>
       <c r="H11">
-        <v>0.319477951252761</v>
+        <v>1.059066</v>
       </c>
       <c r="I11">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J11">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>1.184132025591108</v>
+        <v>1.309637956076</v>
       </c>
       <c r="R11">
-        <v>1.184132025591108</v>
+        <v>11.786741604684</v>
       </c>
       <c r="S11">
-        <v>0.006755840493308172</v>
+        <v>0.007222390021504685</v>
       </c>
       <c r="T11">
-        <v>0.006755840493308172</v>
+        <v>0.007222390021504684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.319477951252761</v>
+        <v>0.353022</v>
       </c>
       <c r="H12">
-        <v>0.319477951252761</v>
+        <v>1.059066</v>
       </c>
       <c r="I12">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J12">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>1.126582309807854</v>
+        <v>1.270526648696</v>
       </c>
       <c r="R12">
-        <v>1.126582309807854</v>
+        <v>11.434739838264</v>
       </c>
       <c r="S12">
-        <v>0.006427501514322444</v>
+        <v>0.007006699024738154</v>
       </c>
       <c r="T12">
-        <v>0.006427501514322444</v>
+        <v>0.007006699024738153</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.319477951252761</v>
+        <v>0.353022</v>
       </c>
       <c r="H13">
-        <v>0.319477951252761</v>
+        <v>1.059066</v>
       </c>
       <c r="I13">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="J13">
-        <v>0.01557975050884982</v>
+        <v>0.01686180347577968</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N13">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q13">
-        <v>0.4200312389706694</v>
+        <v>0.477390826882</v>
       </c>
       <c r="R13">
-        <v>0.4200312389706694</v>
+        <v>4.296517441938</v>
       </c>
       <c r="S13">
-        <v>0.002396408501219206</v>
+        <v>0.002632714429536846</v>
       </c>
       <c r="T13">
-        <v>0.002396408501219206</v>
+        <v>0.002632714429536845</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.24152897667064</v>
+        <v>1.427651</v>
       </c>
       <c r="H14">
-        <v>1.24152897667064</v>
+        <v>4.282953</v>
       </c>
       <c r="I14">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966213</v>
       </c>
       <c r="J14">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966211</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N14">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q14">
-        <v>4.601676629671187</v>
+        <v>5.296287306824667</v>
       </c>
       <c r="R14">
-        <v>4.601676629671187</v>
+        <v>47.666585761422</v>
       </c>
       <c r="S14">
-        <v>0.02625399249405785</v>
+        <v>0.02920795966424524</v>
       </c>
       <c r="T14">
-        <v>0.02625399249405785</v>
+        <v>0.02920795966424524</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.24152897667064</v>
+        <v>1.427651</v>
       </c>
       <c r="H15">
-        <v>1.24152897667064</v>
+        <v>4.282953</v>
       </c>
       <c r="I15">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966213</v>
       </c>
       <c r="J15">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966211</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N15">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q15">
-        <v>4.378031650529758</v>
+        <v>5.138117852534667</v>
       </c>
       <c r="R15">
-        <v>4.378031650529758</v>
+        <v>46.24306067281201</v>
       </c>
       <c r="S15">
-        <v>0.02497802851913327</v>
+        <v>0.02833568692423263</v>
       </c>
       <c r="T15">
-        <v>0.02497802851913327</v>
+        <v>0.02833568692423263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.24152897667064</v>
+        <v>1.427651</v>
       </c>
       <c r="H16">
-        <v>1.24152897667064</v>
+        <v>4.282953</v>
       </c>
       <c r="I16">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966213</v>
       </c>
       <c r="J16">
-        <v>0.06054474692287248</v>
+        <v>0.06819056770966211</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N16">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q16">
-        <v>1.63229090534757</v>
+        <v>1.930609116114333</v>
       </c>
       <c r="R16">
-        <v>1.63229090534757</v>
+        <v>17.375482045029</v>
       </c>
       <c r="S16">
-        <v>0.009312725909681348</v>
+        <v>0.01064692112118425</v>
       </c>
       <c r="T16">
-        <v>0.009312725909681348</v>
+        <v>0.01064692112118425</v>
       </c>
     </row>
   </sheetData>
